--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value311.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value311.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9295553859481863</v>
+        <v>1.102680444717407</v>
       </c>
       <c r="B1">
-        <v>1.076156698952521</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>1.365559087746795</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.890855685373892</v>
+        <v>1.789856314659119</v>
       </c>
       <c r="E1">
-        <v>4.728003808477662</v>
+        <v>1.133911728858948</v>
       </c>
     </row>
   </sheetData>
